--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>Возрастные группы</t>
   </si>
@@ -82,12 +72,15 @@
   </si>
   <si>
     <t>Взвешенные величины</t>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,8 +155,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,14 +185,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +443,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -756,16 +758,322 @@
         <v>52.095578600000003</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6">
+        <v>85.291230773062765</v>
+      </c>
+      <c r="C18" s="6">
+        <v>84.756724432319643</v>
+      </c>
+      <c r="D18" s="6">
+        <v>73.947981869545103</v>
+      </c>
+      <c r="E18" s="6">
+        <v>57.576064965336137</v>
+      </c>
+      <c r="F18" s="6">
+        <v>69.028995017257486</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45.756056176810198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6">
+        <v>87.271377911752566</v>
+      </c>
+      <c r="C19" s="6">
+        <v>83.592440925453062</v>
+      </c>
+      <c r="D19" s="6">
+        <v>74.508198215489926</v>
+      </c>
+      <c r="E19" s="6">
+        <v>62.955766658810461</v>
+      </c>
+      <c r="F19" s="6">
+        <v>67.730488312681473</v>
+      </c>
+      <c r="G19" s="6">
+        <v>48.429321853995404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6">
+        <v>88.332795369582215</v>
+      </c>
+      <c r="C20" s="6">
+        <v>83.415591399946209</v>
+      </c>
+      <c r="D20" s="6">
+        <v>75.136985482015234</v>
+      </c>
+      <c r="E20" s="6">
+        <v>65.742490839707713</v>
+      </c>
+      <c r="F20" s="6">
+        <v>67.180261673843987</v>
+      </c>
+      <c r="G20" s="6">
+        <v>49.760435084581182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
+        <v>88.395970780164646</v>
+      </c>
+      <c r="C21" s="6">
+        <v>83.186714509170756</v>
+      </c>
+      <c r="D21" s="6">
+        <v>74.99666307210525</v>
+      </c>
+      <c r="E21" s="6">
+        <v>62.746892589688379</v>
+      </c>
+      <c r="F21" s="6">
+        <v>66.338587480111514</v>
+      </c>
+      <c r="G21" s="6">
+        <v>47.593312208957862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6">
+        <v>88.463249686408417</v>
+      </c>
+      <c r="C22" s="6">
+        <v>83.464031870318934</v>
+      </c>
+      <c r="D22" s="6">
+        <v>75.270622362148345</v>
+      </c>
+      <c r="E22" s="6">
+        <v>61.451099865782943</v>
+      </c>
+      <c r="F22" s="6">
+        <v>66.683015768008858</v>
+      </c>
+      <c r="G22" s="6">
+        <v>47.015476867255757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="6">
+        <v>89.999909086562624</v>
+      </c>
+      <c r="C23" s="6">
+        <v>84.816775917478083</v>
+      </c>
+      <c r="D23" s="6">
+        <v>77.511414257480723</v>
+      </c>
+      <c r="E23" s="6">
+        <v>67.411651984744694</v>
+      </c>
+      <c r="F23" s="6">
+        <v>66.896286664723746</v>
+      </c>
+      <c r="G23" s="6">
+        <v>50.548487875939507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>92.972493293618186</v>
+      </c>
+      <c r="C24" s="6">
+        <v>84.924644677838728</v>
+      </c>
+      <c r="D24" s="6">
+        <v>79.801475974797157</v>
+      </c>
+      <c r="E24" s="6">
+        <v>74.44326643688035</v>
+      </c>
+      <c r="F24" s="6">
+        <v>68.575852631333206</v>
+      </c>
+      <c r="G24" s="6">
+        <v>55.507255790013943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="6">
+        <v>96.19060099930131</v>
+      </c>
+      <c r="C25" s="6">
+        <v>85.096044432978886</v>
+      </c>
+      <c r="D25" s="6">
+        <v>82.321339902026622</v>
+      </c>
+      <c r="E25" s="6">
+        <v>87.145825234593161</v>
+      </c>
+      <c r="F25" s="6">
+        <v>71.01865275196829</v>
+      </c>
+      <c r="G25" s="6">
+        <v>64.283952161227916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6">
+        <v>96.474483462137854</v>
+      </c>
+      <c r="C26" s="6">
+        <v>87.385784600610592</v>
+      </c>
+      <c r="D26" s="6">
+        <v>84.681136543744117</v>
+      </c>
+      <c r="E26" s="6">
+        <v>86.300055424386102</v>
+      </c>
+      <c r="F26" s="6">
+        <v>73.816218362341971</v>
+      </c>
+      <c r="G26" s="6">
+        <v>66.072927411357355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>97.642271934451585</v>
+      </c>
+      <c r="C27" s="6">
+        <v>90.919021081533259</v>
+      </c>
+      <c r="D27" s="6">
+        <v>88.965269605324778</v>
+      </c>
+      <c r="E27" s="6">
+        <v>92.22803491553789</v>
+      </c>
+      <c r="F27" s="6">
+        <v>79.584077457966174</v>
+      </c>
+      <c r="G27" s="6">
+        <v>74.581136020844525</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="6">
+        <v>98.836053142368371</v>
+      </c>
+      <c r="C28" s="6">
+        <v>94.323632019451253</v>
+      </c>
+      <c r="D28" s="6">
+        <v>93.286859930295961</v>
+      </c>
+      <c r="E28" s="6">
+        <v>96.306211248200526</v>
+      </c>
+      <c r="F28" s="6">
+        <v>86.738471585647048</v>
+      </c>
+      <c r="G28" s="6">
+        <v>83.944654043623956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="7">
+        <v>90.556413660000004</v>
+      </c>
+      <c r="C29" s="7">
+        <v>84.535118109999999</v>
+      </c>
+      <c r="D29" s="7">
+        <v>77.758646679999998</v>
+      </c>
+      <c r="E29" s="7">
+        <v>69.836154379999996</v>
+      </c>
+      <c r="F29" s="7">
+        <v>68.578293669999994</v>
+      </c>
+      <c r="G29" s="7">
+        <v>53.099156929999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1068,6 +1376,310 @@
         <v>45.084394879999998</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9">
+        <v>89.884804728424513</v>
+      </c>
+      <c r="C18" s="9">
+        <v>76.904322818746124</v>
+      </c>
+      <c r="D18" s="9">
+        <v>70.778718400329453</v>
+      </c>
+      <c r="E18" s="9">
+        <v>80.239077089886621</v>
+      </c>
+      <c r="F18" s="9">
+        <v>55.107750427087829</v>
+      </c>
+      <c r="G18" s="9">
+        <v>48.522321752145153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="9">
+        <v>91.154758114530537</v>
+      </c>
+      <c r="C19" s="9">
+        <v>77.357086004302332</v>
+      </c>
+      <c r="D19" s="9">
+        <v>71.955717713590403</v>
+      </c>
+      <c r="E19" s="9">
+        <v>74.693504694377992</v>
+      </c>
+      <c r="F19" s="9">
+        <v>54.570467812794412</v>
+      </c>
+      <c r="G19" s="9">
+        <v>46.055295883469583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="9">
+        <v>92.633765062872143</v>
+      </c>
+      <c r="C20" s="9">
+        <v>78.210963737683983</v>
+      </c>
+      <c r="D20" s="9">
+        <v>73.631469311685265</v>
+      </c>
+      <c r="E20" s="9">
+        <v>81.176540821721929</v>
+      </c>
+      <c r="F20" s="9">
+        <v>54.222726882492019</v>
+      </c>
+      <c r="G20" s="9">
+        <v>48.166454659703177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="9">
+        <v>91.208411725607931</v>
+      </c>
+      <c r="C21" s="9">
+        <v>79.13134008694081</v>
+      </c>
+      <c r="D21" s="9">
+        <v>73.523223860250027</v>
+      </c>
+      <c r="E21" s="9">
+        <v>80.69996694072357</v>
+      </c>
+      <c r="F21" s="9">
+        <v>54.007660375320079</v>
+      </c>
+      <c r="G21" s="9">
+        <v>47.829619312046148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="9">
+        <v>90.23121033413544</v>
+      </c>
+      <c r="C22" s="9">
+        <v>79.144452104951654</v>
+      </c>
+      <c r="D22" s="9">
+        <v>72.898012924732612</v>
+      </c>
+      <c r="E22" s="9">
+        <v>76.988914680961656</v>
+      </c>
+      <c r="F22" s="9">
+        <v>54.249135789589396</v>
+      </c>
+      <c r="G22" s="9">
+        <v>46.679999191302919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="9">
+        <v>91.513845551738214</v>
+      </c>
+      <c r="C23" s="9">
+        <v>77.324013035922405</v>
+      </c>
+      <c r="D23" s="9">
+        <v>72.150370581197222</v>
+      </c>
+      <c r="E23" s="9">
+        <v>73.717949055873603</v>
+      </c>
+      <c r="F23" s="9">
+        <v>54.616372966179576</v>
+      </c>
+      <c r="G23" s="9">
+        <v>45.714551055667968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9">
+        <v>92.080464751914164</v>
+      </c>
+      <c r="C24" s="9">
+        <v>76.704245165018094</v>
+      </c>
+      <c r="D24" s="9">
+        <v>71.956839669012012</v>
+      </c>
+      <c r="E24" s="9">
+        <v>71.031874260794211</v>
+      </c>
+      <c r="F24" s="9">
+        <v>55.444343909364889</v>
+      </c>
+      <c r="G24" s="9">
+        <v>45.219235297167764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="9">
+        <v>94.805658425834665</v>
+      </c>
+      <c r="C25" s="9">
+        <v>78.28983893914679</v>
+      </c>
+      <c r="D25" s="9">
+        <v>75.069471682335973</v>
+      </c>
+      <c r="E25" s="9">
+        <v>81.293532013247841</v>
+      </c>
+      <c r="F25" s="9">
+        <v>57.171925555457875</v>
+      </c>
+      <c r="G25" s="9">
+        <v>50.524565259504065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="9">
+        <v>96.436580689537081</v>
+      </c>
+      <c r="C26" s="9">
+        <v>79.077410446829674</v>
+      </c>
+      <c r="D26" s="9">
+        <v>76.832143815210131</v>
+      </c>
+      <c r="E26" s="9">
+        <v>85.463170230732672</v>
+      </c>
+      <c r="F26" s="9">
+        <v>60.477753868221768</v>
+      </c>
+      <c r="G26" s="9">
+        <v>54.836408959392706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="9">
+        <v>94.900066872326818</v>
+      </c>
+      <c r="C27" s="9">
+        <v>82.805561881652679</v>
+      </c>
+      <c r="D27" s="9">
+        <v>79.277510460499997</v>
+      </c>
+      <c r="E27" s="9">
+        <v>78.180811162482499</v>
+      </c>
+      <c r="F27" s="9">
+        <v>66.068164102373231</v>
+      </c>
+      <c r="G27" s="9">
+        <v>55.782231746641841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="9">
+        <v>95.588238254263899</v>
+      </c>
+      <c r="C28" s="9">
+        <v>86.83259519120908</v>
+      </c>
+      <c r="D28" s="9">
+        <v>83.486619881896232</v>
+      </c>
+      <c r="E28" s="9">
+        <v>92.117087576133088</v>
+      </c>
+      <c r="F28" s="9">
+        <v>75.639357490135112</v>
+      </c>
+      <c r="G28" s="9">
+        <v>71.040818975564449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="10">
+        <v>92.288817080000001</v>
+      </c>
+      <c r="C29" s="10">
+        <v>78.306547510000001</v>
+      </c>
+      <c r="D29" s="10">
+        <v>73.4984319</v>
+      </c>
+      <c r="E29" s="10">
+        <v>77.611003229999994</v>
+      </c>
+      <c r="F29" s="10">
+        <v>55.735349280000001</v>
+      </c>
+      <c r="G29" s="10">
+        <v>48.034549220000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -80,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -185,7 +195,9010 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>83.939694417134589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.087867515599399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.045771368678274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.051642009545617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.275257938253972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.822111613189989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.837588214983384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.334203608867043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.402029208063979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.822684123683985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.344656176603863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$18:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>85.291230773062765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.271377911752566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.332795369582215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.395970780164646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.463249686408417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.999909086562624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.972493293618186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.19060099930131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.474483462137854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.642271934451585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.836053142368371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>55.101445864730451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.83512933887237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.993987709520155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.404685183923462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.031250327938558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.166206702505818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.844956845724738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.069485225769711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.428681293362345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.968403393023749</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.12817109702641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$18:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>57.576064965336137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.955766658810461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.742490839707713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.746892589688379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.451099865782943</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.411651984744694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.44326643688035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.145825234593161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.300055424386102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.22803491553789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.306211248200526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="476329968"/>
+        <c:axId val="476328008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="476329968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476328008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476328008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476329968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>85.155033934214003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.533830900585656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.277953572392605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.31357350633553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.964957219375023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.582177245422656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.79496708305355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.03556841719184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.349903522570941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.975670116391882</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.596434108967372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$C$18:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84.756724432319643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.592440925453062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.415591399946209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.186714509170756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.464031870318934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.816775917478083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.924644677838728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.096044432978886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.385784600610592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.919021081533259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.323632019451253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69.841377850571064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.576842916606921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.725567276286867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.427482122402125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.558441261162912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.683205508754995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.454175039901045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.243049686160688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.225127735382458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.371875196676996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88.258357202943145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$F$18:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69.028995017257486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.730488312681473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.180261673843987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.338587480111514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.683015768008858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.896286664723746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.575852631333206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.01865275196829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.816218362341971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.584077457966174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.738471585647048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="476335848"/>
+        <c:axId val="476330752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="476335848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476330752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476330752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476335848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>73.224598564531732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.598331555049057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.094793543077586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.127200785950606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.80668926397739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.260567180933947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.715823331184396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.558824538739628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.7411243007666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.280401496629068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.082150296379737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$18:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>73.947981869545103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.508198215489926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.136985482015234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.99666307210525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.270622362148345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.511414257480723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.801475974797157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.321339902026622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.681136543744117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.965269605324778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.286859930295961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44.510633631811693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.090019347966127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.935429912048448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.276692790553625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.993194381125775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.641690680270358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.617460560468693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.315969084106129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.570011012559206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.441822053987437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.440628920919252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.756056176810198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.429321853995404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.760435084581182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.593312208957862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.015476867255757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.548487875939507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.507255790013943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.283952161227916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.072927411357355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.581136020844525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.944654043623956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338874984"/>
+        <c:axId val="338875376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338874984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338875376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338875376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338874984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>89.411020846973869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.573378454025843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.823637100861504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.914716638593262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.613474696485355</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.470631618723345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.668474452646066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.563854067114221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.389669892465477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.996568910708035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.650779127332228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$18:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>89.884804728424513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.154758114530537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.633765062872143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.208411725607931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.23121033413544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.513845551738214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.080464751914164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.805658425834665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.436580689537081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.900066872326818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.588238254263899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>79.141828896836302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.929861513019844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.417808717043187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.021876943189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.647358549629416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.43189560026245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.604348730721497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.799353783124374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.417676991374094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.735679930628748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.889479333664113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$18:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>80.239077089886621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.693504694377992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.176540821721929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.69996694072357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.988914680961656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.717949055873603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.031874260794211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.293532013247841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.463170230732672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.180811162482499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.117087576133088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="132968528"/>
+        <c:axId val="132967352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132968528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132967352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132967352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132968528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>76.817540106922621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.635856604928065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.14003537966542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.8811176384352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.765814653266318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.665203424092496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.642353880175406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.754616415110974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.579920681604932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.218938163931483</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.579793903916226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$C$18:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>76.904322818746124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.357086004302332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.210963737683983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.13134008694081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.144452104951654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.324013035922405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.704245165018094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.28983893914679</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.077410446829674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.805561881652679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.83259519120908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>54.722330066387123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.464746672276746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.636939682320559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.164503210323531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.141419550683551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.50713722596943</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.449582192961316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.528345685272164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.260351897854306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.403822172510225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.667160121719277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$F$18:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>55.107750427087829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.570467812794412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.222726882492019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.007660375320079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.249135789589396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.616372966179576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.444343909364889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.171925555457875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.477753868221768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.068164102373231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.639357490135112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="132970096"/>
+        <c:axId val="132969704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132970096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132969704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132969704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132970096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70.411706840167469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.974775231024239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.181843827366706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.624203046732291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.335884790360382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.079682721652645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.316956845538712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.002206429487288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.916099534123475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.867471446320266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.238317568769162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$18:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70.778718400329453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.955717713590403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.631469311685265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.523223860250027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.898012924732612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.150370581197222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.956839669012012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.069471682335973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.832143815210131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.277510460499997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.486619881896232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.824765018240683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.611437706394042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.31825545303132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.481159972454876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.646950969746889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.023177319508513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.527922632885804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.185765752345098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.231178360011647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.913996894730445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.579255482569295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>48.522321752145153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.055295883469583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.166454659703177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.829619312046148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.679999191302919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.714551055667968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.219235297167764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.524565259504065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.836408959392706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.782231746641841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.040818975564449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="132967744"/>
+        <c:axId val="132970488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="132967744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132970488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132970488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="132967744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91170</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91170</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Женщины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Мужчины"/>
+      <sheetName val="Женщины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>18-24</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>30-34</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>35-39</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>40-44</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>45-49</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>50-54</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>55-59</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>60-64</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>65-69</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>70+</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Женщины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,18 +9456,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1064,15 +10077,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1682,5 +10696,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
@@ -90,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -208,17 +201,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -240,31 +223,54 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -272,43 +278,21 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -422,7 +406,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -537,7 +520,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -653,7 +635,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -769,27 +750,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="476329968"/>
-        <c:axId val="476328008"/>
+        <c:axId val="76982912"/>
+        <c:axId val="76997376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="476329968"/>
+        <c:axId val="76982912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -825,14 +796,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -840,30 +814,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -898,21 +851,19 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476328008"/>
+        <c:crossAx val="76997376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476328008"/>
+        <c:axId val="76997376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -948,19 +899,30 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -968,30 +930,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1020,7 +961,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476329968"/>
+        <c:crossAx val="76982912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1039,13 +980,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16233101858577642"/>
+          <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1076,7 +1016,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1105,7 +1044,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1113,17 +1052,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1145,31 +1074,54 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1177,43 +1129,21 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1246,7 +1176,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1327,7 +1257,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1361,7 +1290,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1442,7 +1371,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1477,7 +1405,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1558,7 +1486,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1593,7 +1520,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1674,27 +1601,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="476335848"/>
-        <c:axId val="476330752"/>
+        <c:axId val="77267712"/>
+        <c:axId val="77269632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="476335848"/>
+        <c:axId val="77267712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1730,14 +1647,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1745,30 +1665,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1803,20 +1702,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476330752"/>
+        <c:crossAx val="77269632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476330752"/>
+        <c:axId val="77269632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1852,8 +1749,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -1864,7 +1769,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1872,30 +1776,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1924,7 +1807,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476335848"/>
+        <c:crossAx val="77267712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1943,13 +1826,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16377454690822824"/>
+          <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1980,7 +1862,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2009,7 +1890,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2017,17 +1898,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2049,31 +1920,54 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внешнее и внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2081,43 +1975,21 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2150,7 +2022,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2231,7 +2103,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2265,7 +2136,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2346,7 +2217,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2381,7 +2251,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2462,7 +2332,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2497,7 +2366,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2578,27 +2447,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="338874984"/>
-        <c:axId val="338875376"/>
+        <c:axId val="78719616"/>
+        <c:axId val="78734080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338874984"/>
+        <c:axId val="78719616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2634,14 +2493,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2649,30 +2511,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2707,20 +2548,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338875376"/>
+        <c:crossAx val="78734080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338875376"/>
+        <c:axId val="78734080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2756,19 +2595,30 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2776,30 +2626,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2828,7 +2657,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338874984"/>
+        <c:crossAx val="78719616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2847,13 +2676,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16375787401574804"/>
+          <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2884,7 +2712,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2913,7 +2740,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2921,17 +2748,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2953,35 +2770,56 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
               <a:t>женщины</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2989,43 +2827,21 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.6702676260780242E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72400263811478316"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3139,7 +2955,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3254,7 +3069,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3370,7 +3184,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3486,27 +3299,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="132968528"/>
-        <c:axId val="132967352"/>
+        <c:axId val="78849152"/>
+        <c:axId val="78851072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132968528"/>
+        <c:axId val="78849152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3542,14 +3345,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3557,30 +3363,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3615,21 +3400,19 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132967352"/>
+        <c:crossAx val="78851072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132967352"/>
+        <c:axId val="78851072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3665,19 +3448,30 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3685,30 +3479,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3737,7 +3510,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132968528"/>
+        <c:crossAx val="78849152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3756,13 +3529,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16044893029372681"/>
+          <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3793,7 +3565,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3822,7 +3593,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3830,17 +3601,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3862,35 +3623,56 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
               <a:t>женщины</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3898,43 +3680,21 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.6707527663910924E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72399788977688651"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3967,7 +3727,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4048,7 +3808,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4082,7 +3841,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4163,7 +3922,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4198,7 +3956,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4279,7 +4037,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4314,7 +4071,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4395,27 +4152,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="132970096"/>
-        <c:axId val="132969704"/>
+        <c:axId val="78982144"/>
+        <c:axId val="79004800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132970096"/>
+        <c:axId val="78982144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4451,14 +4198,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4466,30 +4216,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4524,20 +4253,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132969704"/>
+        <c:crossAx val="79004800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132969704"/>
+        <c:axId val="79004800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4573,19 +4300,30 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4593,30 +4331,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4645,7 +4362,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132970096"/>
+        <c:crossAx val="78982144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4664,13 +4381,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16210996097397937"/>
+          <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4701,7 +4417,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4730,7 +4445,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4738,17 +4453,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4770,35 +4475,56 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внешнее и внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
               <a:t>женщины</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4806,43 +4532,21 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.3378355795413214E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72732706164538419"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4875,7 +4579,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4956,7 +4660,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4990,7 +4693,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5071,7 +4774,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5106,7 +4808,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5187,7 +4889,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5222,7 +4923,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5303,27 +5004,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="132967744"/>
-        <c:axId val="132970488"/>
+        <c:axId val="79316096"/>
+        <c:axId val="79318016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132967744"/>
+        <c:axId val="79316096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5359,14 +5050,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5374,30 +5068,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5432,20 +5105,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132970488"/>
+        <c:crossAx val="79318016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132970488"/>
+        <c:axId val="79318016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5481,19 +5152,30 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5501,30 +5183,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5553,7 +5214,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132967744"/>
+        <c:crossAx val="79316096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5572,13 +5233,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16543913284247708"/>
+          <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5609,7 +5269,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5638,7 +5297,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8907,15 +8566,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153081</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8938,16 +8597,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181657</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14970</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8970,16 +8629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>48307</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>91170</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9007,16 +8666,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153081</xdr:rowOff>
+      <xdr:colOff>1681</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9039,16 +8698,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181657</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14970</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9071,16 +8730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>48307</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>187821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>91170</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9105,20 +8764,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Женщины"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Мужчины"/>
@@ -9183,19 +8829,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Женщины"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9456,18 +9089,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10082,11 +9715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
@@ -83,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -201,7 +206,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -271,6 +286,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -279,6 +295,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -293,6 +310,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -406,6 +424,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -520,6 +539,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -635,6 +655,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -750,17 +771,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="76982912"/>
-        <c:axId val="76997376"/>
+        <c:smooth val="0"/>
+        <c:axId val="199043976"/>
+        <c:axId val="199045544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76982912"/>
+        <c:axId val="199043976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -807,6 +838,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -817,6 +849,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -851,19 +884,21 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76997376"/>
+        <c:crossAx val="199045544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76997376"/>
+        <c:axId val="199045544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -923,6 +958,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -933,6 +969,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -961,7 +998,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76982912"/>
+        <c:crossAx val="199043976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -986,6 +1023,7 @@
           <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1016,6 +1054,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1052,7 +1091,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1122,6 +1171,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1130,6 +1180,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1144,6 +1195,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1257,6 +1309,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1371,6 +1424,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1486,6 +1540,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1601,17 +1656,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="77267712"/>
-        <c:axId val="77269632"/>
+        <c:smooth val="0"/>
+        <c:axId val="199044368"/>
+        <c:axId val="199044760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77267712"/>
+        <c:axId val="199044368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1658,6 +1723,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1668,6 +1734,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1702,18 +1769,20 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77269632"/>
+        <c:crossAx val="199044760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77269632"/>
+        <c:axId val="199044760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1769,6 +1838,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1779,6 +1849,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1807,7 +1878,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77267712"/>
+        <c:crossAx val="199044368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1832,6 +1903,7 @@
           <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1862,6 +1934,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1898,7 +1971,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1925,15 +2008,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Внешнее и внутреннее</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
+              <a:t>Суммарное </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
@@ -1968,6 +2043,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1976,6 +2052,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1990,6 +2067,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2103,6 +2181,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2217,6 +2296,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2332,6 +2412,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2447,17 +2528,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78719616"/>
-        <c:axId val="78734080"/>
+        <c:smooth val="0"/>
+        <c:axId val="199038096"/>
+        <c:axId val="199039272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78719616"/>
+        <c:axId val="199038096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2504,6 +2595,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2514,6 +2606,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2548,18 +2641,20 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78734080"/>
+        <c:crossAx val="199039272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78734080"/>
+        <c:axId val="199039272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2619,6 +2714,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2629,6 +2725,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2657,7 +2754,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78719616"/>
+        <c:crossAx val="199038096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2682,6 +2779,7 @@
           <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2712,6 +2810,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2748,7 +2847,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2778,7 +2887,15 @@
               <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2802,24 +2919,22 @@
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:effectLst/>
               </a:rPr>
-              <a:t>женщины</a:t>
+              <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU">
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2828,6 +2943,891 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4748073464986617E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>73.224598564531732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.598331555049057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.094793543077586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.127200785950606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.80668926397739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.260567180933947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.715823331184396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.558824538739628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.7411243007666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.280401496629068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.082150296379737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$18:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>73.947981869545103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.508198215489926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.136985482015234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.99666307210525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.270622362148345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.511414257480723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.801475974797157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.321339902026622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.681136543744117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.965269605324778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.286859930295961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44.510633631811693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.090019347966127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.935429912048448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.276692790553625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.993194381125775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.641690680270358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.617460560468693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.315969084106129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.570011012559206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.441822053987437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.440628920919252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.756056176810198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.429321853995404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.760435084581182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.593312208957862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.015476867255757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.548487875939507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.507255790013943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.283952161227916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.072927411357355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.581136020844525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.944654043623956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="199038488"/>
+        <c:axId val="199039664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="199038488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199039664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="199039664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199038488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16375787401574804"/>
+          <c:h val="0.71363970117805908"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2842,6 +3842,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2955,6 +3956,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3069,6 +4071,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3184,6 +4187,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3299,17 +4303,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78849152"/>
-        <c:axId val="78851072"/>
+        <c:smooth val="0"/>
+        <c:axId val="362129224"/>
+        <c:axId val="362133536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78849152"/>
+        <c:axId val="362129224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3356,6 +4370,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3366,6 +4381,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3400,19 +4416,21 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78851072"/>
+        <c:crossAx val="362133536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78851072"/>
+        <c:axId val="362133536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3472,6 +4490,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -3482,6 +4501,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3510,7 +4530,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78849152"/>
+        <c:crossAx val="362129224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3535,6 +4555,7 @@
           <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3565,6 +4586,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3599,9 +4621,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3673,6 +4705,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3681,6 +4714,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3695,6 +4729,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3808,6 +4843,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3922,6 +4958,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4037,6 +5074,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4152,17 +5190,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="78982144"/>
-        <c:axId val="79004800"/>
+        <c:smooth val="0"/>
+        <c:axId val="362131576"/>
+        <c:axId val="362129616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78982144"/>
+        <c:axId val="362131576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4209,6 +5257,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4219,6 +5268,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4253,18 +5303,20 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79004800"/>
+        <c:crossAx val="362129616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79004800"/>
+        <c:axId val="362129616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4324,6 +5376,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -4334,6 +5387,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4362,7 +5416,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78982144"/>
+        <c:crossAx val="362131576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4387,6 +5441,7 @@
           <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4417,6 +5472,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4451,9 +5507,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4475,28 +5541,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1">
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Внешнее и внутреннее</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>облучение</a:t>
+              <a:t>Суммарное облучение</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" baseline="0">
@@ -4525,6 +5575,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4533,6 +5584,7 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -4547,6 +5599,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4660,6 +5713,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4774,6 +5828,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4889,6 +5944,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5004,17 +6060,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="79316096"/>
-        <c:axId val="79318016"/>
+        <c:smooth val="0"/>
+        <c:axId val="362130008"/>
+        <c:axId val="362134712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79316096"/>
+        <c:axId val="362130008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5061,6 +6127,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5071,6 +6138,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5105,18 +6173,20 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79318016"/>
+        <c:crossAx val="362134712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79318016"/>
+        <c:axId val="362134712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5176,6 +6246,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -5186,6 +6257,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5214,7 +6286,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79316096"/>
+        <c:crossAx val="362130008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5239,6 +6311,7 @@
           <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5269,6 +6342,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5303,3262 +6377,874 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее и внутреннее облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3378355795413214E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72732706164538419"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70.411706840167469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.974775231024239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.181843827366706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.624203046732291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.335884790360382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.079682721652645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.316956845538712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.002206429487288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.916099534123475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.867471446320266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.238317568769162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$18:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>70.778718400329453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.955717713590403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.631469311685265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.523223860250027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.898012924732612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.150370581197222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.956839669012012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.069471682335973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.832143815210131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.277510460499997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.486619881896232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>47.824765018240683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.611437706394042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.31825545303132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.481159972454876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.646950969746889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.023177319508513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.527922632885804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.185765752345098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.231178360011647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.913996894730445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.579255482569295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>48.522321752145153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.055295883469583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.166454659703177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.829619312046148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.679999191302919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.714551055667968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.219235297167764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.524565259504065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.836408959392706</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.782231746641841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.040818975564449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="362127656"/>
+        <c:axId val="362128048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="362127656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362128048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="362128048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362127656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16543913284247708"/>
+          <c:h val="0.71363970117805908"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8654,6 +7340,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8760,11 +7478,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Мужчины"/>
@@ -8828,7 +7578,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9089,18 +7845,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9715,11 +8471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/СХК ИБПО_LAR (Средний возраст)(01.09.2015 23-54-25).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
@@ -783,11 +783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199043976"/>
-        <c:axId val="199045544"/>
+        <c:axId val="119059544"/>
+        <c:axId val="119060328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199043976"/>
+        <c:axId val="119059544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +884,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199045544"/>
+        <c:crossAx val="119060328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -892,7 +892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199045544"/>
+        <c:axId val="119060328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -998,7 +998,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199043976"/>
+        <c:crossAx val="119059544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1170,7 +1170,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1668,11 +1667,2653 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199044368"/>
-        <c:axId val="199044760"/>
+        <c:axId val="119059152"/>
+        <c:axId val="119060720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199044368"/>
+        <c:axId val="119059152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119060720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119060720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119059152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16377454690822824"/>
+          <c:h val="0.71363970117805908"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Суммарное </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4748073464986617E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>73.224598564531732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.598331555049057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.094793543077586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.127200785950606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.80668926397739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.260567180933947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.715823331184396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.558824538739628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.7411243007666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.280401496629068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.082150296379737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$18:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>73.947981869545103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.508198215489926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.136985482015234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.99666307210525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.270622362148345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.511414257480723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.801475974797157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.321339902026622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.681136543744117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.965269605324778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.286859930295961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44.510633631811693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.090019347966127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.935429912048448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.276692790553625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.993194381125775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.641690680270401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.617460560468693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.315969084106129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.570011012559206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.441822053987437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.440628920919252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.756056176810198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.429321853995404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.760435084581182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.593312208957862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.015476867255757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.548487875939507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.507255790013943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.283952161227916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.072927411357355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.581136020844525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.944654043623956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="119061112"/>
+        <c:axId val="119065032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="119061112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119065032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119065032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119061112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16375787401574804"/>
+          <c:h val="0.71363970117805908"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4748073464986617E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>73.224598564531732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.598331555049057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.094793543077586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.127200785950606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.80668926397739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.260567180933947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.715823331184396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.558824538739628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.7411243007666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.280401496629068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.082150296379737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$18:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>73.947981869545103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.508198215489926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.136985482015234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.99666307210525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.270622362148345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.511414257480723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.801475974797157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.321339902026622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.681136543744117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.965269605324778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.286859930295961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44.510633631811693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.090019347966127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.935429912048448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.276692790553625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.993194381125775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.641690680270401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.617460560468693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.315969084106129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.570011012559206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.441822053987437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.440628920919252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$18:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.756056176810198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.429321853995404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.760435084581182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.593312208957862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.015476867255757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.548487875939507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.507255790013943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.283952161227916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.072927411357355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.581136020844525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.944654043623956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="119061896"/>
+        <c:axId val="119065424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="119061896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119065424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="119065424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119061896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16375787401574804"/>
+          <c:h val="0.71363970117805908"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6702676260780242E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72400263811478316"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>89.411020846973869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.573378454025843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.823637100861504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.914716638593262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.613474696485355</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.470631618723345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.668474452646066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.563854067114221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.389669892465477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.996568910708035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.650779127332228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$18:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>89.884804728424513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.154758114530537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.633765062872143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.208411725607931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.23121033413544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.513845551738214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.080464751914164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.805658425834665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.436580689537081</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.900066872326818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.588238254263899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>79.141828896836302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.929861513019844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.417808717043187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.021876943189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.647358549629416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.43189560026245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.604348730721497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.799353783124374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.417676991374094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.735679930628748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86.889479333664113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$18:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>80.239077089886621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.693504694377992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.176540821721929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.69996694072357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.988914680961656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.717949055873603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.031874260794211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.293532013247841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.463170230732672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.180811162482499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.117087576133088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="119062680"/>
+        <c:axId val="119063072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="119062680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,7 +4410,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199044760"/>
+        <c:crossAx val="119063072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1777,882 +4418,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199044760"/>
+        <c:axId val="119063072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>ИБПО</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
-                  <a:t> %</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="199044368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.16377454690822824"/>
-          <c:h val="0.71363970117805908"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Суммарное </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>облучение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>, </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>мужчины</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
-          <c:y val="0.13030076594989232"/>
-          <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ИБПО (Метод А)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Мужчины!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>73.224598564531732</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73.598331555049057</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.094793543077586</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74.127200785950606</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>74.80668926397739</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77.260567180933947</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.715823331184396</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.558824538739628</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84.7411243007666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89.280401496629068</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94.082150296379737</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>ИБПО (Метод Б)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Мужчины!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>73.947981869545103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.508198215489926</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75.136985482015234</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74.99666307210525</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75.270622362148345</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77.511414257480723</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.801475974797157</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.321339902026622</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84.681136543744117</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>88.965269605324778</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93.286859930295961</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Мужчины!$G$2:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>44.510633631811693</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.090019347966127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.935429912048448</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.276692790553625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.993194381125775</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.641690680270358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54.617460560468693</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.315969084106129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65.570011012559206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75.441822053987437</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.440628920919252</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Мужчины!$G$18:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>45.756056176810198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.429321853995404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.760435084581182</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.593312208957862</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.015476867255757</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50.548487875939507</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55.507255790013943</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.283952161227916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>66.072927411357355</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>74.581136020844525</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.944654043623956</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="199038096"/>
-        <c:axId val="199039272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="199038096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Возрастная группа</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="199039272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="199039272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2754,7 +4524,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199038096"/>
+        <c:crossAx val="119062680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2775,7 +4545,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.80664865231329497"/>
           <c:y val="0.13581303046591592"/>
-          <c:w val="0.16375787401574804"/>
+          <c:w val="0.16044893029372681"/>
           <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
@@ -2845,7 +4615,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2884,896 +4654,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Внешнее</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> и внутреннее</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>облучение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>, </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>мужчины</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.4748073464986617E-2"/>
-          <c:y val="0.13030076594989232"/>
-          <c:w val="0.72595726272223349"/>
-          <c:h val="0.71929705260737298"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ИБПО (Метод А)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Мужчины!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>73.224598564531732</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73.598331555049057</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.094793543077586</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74.127200785950606</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>74.80668926397739</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77.260567180933947</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.715823331184396</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.558824538739628</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84.7411243007666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89.280401496629068</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94.082150296379737</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>ИБПО (Метод Б)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Мужчины!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>73.947981869545103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.508198215489926</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75.136985482015234</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74.99666307210525</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75.270622362148345</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>77.511414257480723</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>79.801475974797157</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.321339902026622</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84.681136543744117</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>88.965269605324778</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93.286859930295961</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Мужчины!$G$2:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>44.510633631811693</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.090019347966127</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.935429912048448</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46.276692790553625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.993194381125775</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>49.641690680270358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54.617460560468693</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.315969084106129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>65.570011012559206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>75.441822053987437</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.440628920919252</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Мужчины!$G$18:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>45.756056176810198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48.429321853995404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.760435084581182</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.593312208957862</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.015476867255757</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50.548487875939507</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55.507255790013943</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.283952161227916</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>66.072927411357355</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>74.581136020844525</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.944654043623956</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="199038488"/>
-        <c:axId val="199039664"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="199038488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Возрастная группа</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="199039664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="199039664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="110"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>ИБПО,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> %</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="199038488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.16375787401574804"/>
-          <c:h val="0.71363970117805908"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Внешнее</a:t>
+              <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" baseline="0">
@@ -3834,9 +4715,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6702676260780242E-2"/>
+          <c:x val="7.6707527663910924E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.72400263811478316"/>
+          <c:w val="0.72399788977688651"/>
           <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
@@ -3875,7 +4756,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3916,42 +4797,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$2:$B$12</c:f>
+              <c:f>Женщины!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>89.411020846973869</c:v>
+                  <c:v>76.817540106922621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.573378454025843</c:v>
+                  <c:v>76.635856604928065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.823637100861504</c:v>
+                  <c:v>77.14003537966542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.914716638593262</c:v>
+                  <c:v>77.8811176384352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.613474696485355</c:v>
+                  <c:v>77.765814653266318</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.470631618723345</c:v>
+                  <c:v>75.665203424092496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.668474452646066</c:v>
+                  <c:v>74.642353880175406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.563854067114221</c:v>
+                  <c:v>75.754616415110974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.389669892465477</c:v>
+                  <c:v>75.579920681604932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.996568910708035</c:v>
+                  <c:v>78.218938163931483</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.650779127332228</c:v>
+                  <c:v>78.579793903916226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3990,7 +4871,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4031,42 +4912,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$18:$B$28</c:f>
+              <c:f>Женщины!$C$18:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>89.884804728424513</c:v>
+                  <c:v>76.904322818746124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.154758114530537</c:v>
+                  <c:v>77.357086004302332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.633765062872143</c:v>
+                  <c:v>78.210963737683983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.208411725607931</c:v>
+                  <c:v>79.13134008694081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.23121033413544</c:v>
+                  <c:v>79.144452104951654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.513845551738214</c:v>
+                  <c:v>77.324013035922405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.080464751914164</c:v>
+                  <c:v>76.704245165018094</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.805658425834665</c:v>
+                  <c:v>78.28983893914679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.436580689537081</c:v>
+                  <c:v>79.077410446829674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.900066872326818</c:v>
+                  <c:v>82.805561881652679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.588238254263899</c:v>
+                  <c:v>86.83259519120908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4106,7 +4987,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4147,42 +5028,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$2:$E$12</c:f>
+              <c:f>Женщины!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>79.141828896836302</c:v>
+                  <c:v>54.722330066387123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.929861513019844</c:v>
+                  <c:v>53.464746672276746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.417808717043187</c:v>
+                  <c:v>52.636939682320559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.021876943189</c:v>
+                  <c:v>52.164503210323531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.647358549629416</c:v>
+                  <c:v>52.141419550683551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.43189560026245</c:v>
+                  <c:v>52.50713722596943</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.604348730721497</c:v>
+                  <c:v>52.449582192961316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.799353783124374</c:v>
+                  <c:v>54.528345685272164</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.417676991374094</c:v>
+                  <c:v>56.260351897854306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.735679930628748</c:v>
+                  <c:v>58.403822172510225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.889479333664113</c:v>
+                  <c:v>60.667160121719277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4222,7 +5103,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -4263,42 +5144,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$18:$E$28</c:f>
+              <c:f>Женщины!$F$18:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>80.239077089886621</c:v>
+                  <c:v>55.107750427087829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.693504694377992</c:v>
+                  <c:v>54.570467812794412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.176540821721929</c:v>
+                  <c:v>54.222726882492019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.69996694072357</c:v>
+                  <c:v>54.007660375320079</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.988914680961656</c:v>
+                  <c:v>54.249135789589396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.717949055873603</c:v>
+                  <c:v>54.616372966179576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.031874260794211</c:v>
+                  <c:v>55.444343909364889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.293532013247841</c:v>
+                  <c:v>57.171925555457875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.463170230732672</c:v>
+                  <c:v>60.477753868221768</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.180811162482499</c:v>
+                  <c:v>66.068164102373231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92.117087576133088</c:v>
+                  <c:v>75.639357490135112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4315,11 +5196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="362129224"/>
-        <c:axId val="362133536"/>
+        <c:axId val="347987576"/>
+        <c:axId val="347991496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="362129224"/>
+        <c:axId val="347987576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4416,7 +5297,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362133536"/>
+        <c:crossAx val="347991496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4424,11 +5305,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362133536"/>
+        <c:axId val="347991496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4530,7 +5410,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362129224"/>
+        <c:crossAx val="347987576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4551,7 +5431,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.80664865231329497"/>
           <c:y val="0.13581303046591592"/>
-          <c:w val="0.16044893029372681"/>
+          <c:w val="0.16210996097397937"/>
           <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
@@ -4621,7 +5501,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4655,28 +5535,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1">
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Внутреннее</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>облучение</a:t>
+              <a:t>Суммарное облучение</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" baseline="0">
@@ -4721,9 +5585,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6707527663910924E-2"/>
+          <c:x val="7.3378355795413214E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.72399788977688651"/>
+          <c:w val="0.72732706164538419"/>
           <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
@@ -4803,42 +5667,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$C$2:$C$12</c:f>
+              <c:f>Женщины!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>76.817540106922621</c:v>
+                  <c:v>70.411706840167469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.635856604928065</c:v>
+                  <c:v>70.974775231024239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.14003537966542</c:v>
+                  <c:v>72.181843827366706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.8811176384352</c:v>
+                  <c:v>71.624203046732291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.765814653266318</c:v>
+                  <c:v>71.335884790360382</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.665203424092496</c:v>
+                  <c:v>70.079682721652645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.642353880175406</c:v>
+                  <c:v>69.316956845538712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.754616415110974</c:v>
+                  <c:v>72.002206429487288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.579920681604932</c:v>
+                  <c:v>72.916099534123475</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.218938163931483</c:v>
+                  <c:v>73.867471446320266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.579793903916226</c:v>
+                  <c:v>75.238317568769162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,42 +5782,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$C$18:$C$28</c:f>
+              <c:f>Женщины!$D$18:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>76.904322818746124</c:v>
+                  <c:v>70.778718400329453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.357086004302332</c:v>
+                  <c:v>71.955717713590403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.210963737683983</c:v>
+                  <c:v>73.631469311685265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.13134008694081</c:v>
+                  <c:v>73.523223860250027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.144452104951654</c:v>
+                  <c:v>72.898012924732612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.324013035922405</c:v>
+                  <c:v>72.150370581197222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.704245165018094</c:v>
+                  <c:v>71.956839669012012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78.28983893914679</c:v>
+                  <c:v>75.069471682335973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.077410446829674</c:v>
+                  <c:v>76.832143815210131</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82.805561881652679</c:v>
+                  <c:v>79.277510460499997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.83259519120908</c:v>
+                  <c:v>83.486619881896232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5034,42 +5898,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$F$2:$F$12</c:f>
+              <c:f>Женщины!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>54.722330066387123</c:v>
+                  <c:v>47.824765018240683</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.464746672276746</c:v>
+                  <c:v>44.611437706394042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.636939682320559</c:v>
+                  <c:v>46.31825545303132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.164503210323531</c:v>
+                  <c:v>45.481159972454876</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.141419550683551</c:v>
+                  <c:v>44.646950969746889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.50713722596943</c:v>
+                  <c:v>43.023177319508513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.449582192961316</c:v>
+                  <c:v>41.527922632885804</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.528345685272164</c:v>
+                  <c:v>47.185765752345098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.260351897854306</c:v>
+                  <c:v>50.231178360011647</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.403822172510225</c:v>
+                  <c:v>47.913996894730445</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.667160121719277</c:v>
+                  <c:v>55.579255482569295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5150,42 +6014,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$F$18:$F$28</c:f>
+              <c:f>Женщины!$G$18:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>55.107750427087829</c:v>
+                  <c:v>48.522321752145153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.570467812794412</c:v>
+                  <c:v>46.055295883469583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.222726882492019</c:v>
+                  <c:v>48.166454659703177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.007660375320079</c:v>
+                  <c:v>47.829619312046148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.249135789589396</c:v>
+                  <c:v>46.679999191302919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.616372966179576</c:v>
+                  <c:v>45.714551055667968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.444343909364889</c:v>
+                  <c:v>45.219235297167764</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.171925555457875</c:v>
+                  <c:v>50.524565259504065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.477753868221768</c:v>
+                  <c:v>54.836408959392706</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.068164102373231</c:v>
+                  <c:v>55.782231746641841</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.639357490135112</c:v>
+                  <c:v>71.040818975564449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5202,11 +6066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="362131576"/>
-        <c:axId val="362129616"/>
+        <c:axId val="347991104"/>
+        <c:axId val="347993064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="362131576"/>
+        <c:axId val="347991104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5303,7 +6167,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362129616"/>
+        <c:crossAx val="347993064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5311,7 +6175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362129616"/>
+        <c:axId val="347993064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -5416,7 +6280,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362131576"/>
+        <c:crossAx val="347991104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5437,7 +6301,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.80664865231329497"/>
           <c:y val="0.13581303046591592"/>
-          <c:w val="0.16210996097397937"/>
+          <c:w val="0.16543913284247708"/>
           <c:h val="0.71363970117805908"/>
         </c:manualLayout>
       </c:layout>
@@ -5507,7 +6371,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -5546,7 +6410,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Суммарное облучение</a:t>
+              <a:t>Внешнее и внутреннее облучение</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" sz="1800" baseline="0">
@@ -6072,11 +6936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="362130008"/>
-        <c:axId val="362134712"/>
+        <c:axId val="347989144"/>
+        <c:axId val="347992280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="362130008"/>
+        <c:axId val="347989144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6173,7 +7037,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362134712"/>
+        <c:crossAx val="347992280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6181,7 +7045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362134712"/>
+        <c:axId val="347992280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -6286,877 +7150,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362130008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.80664865231329497"/>
-          <c:y val="0.13581303046591592"/>
-          <c:w val="0.16543913284247708"/>
-          <c:h val="0.71363970117805908"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Внешнее и внутреннее облучение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>, </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>женщины</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.3378355795413214E-2"/>
-          <c:y val="0.13030076594989232"/>
-          <c:w val="0.72732706164538419"/>
-          <c:h val="0.71929705260737298"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>ИБПО (Метод А)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Женщины!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>70.411706840167469</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.974775231024239</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72.181843827366706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.624203046732291</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.335884790360382</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.079682721652645</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.316956845538712</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>72.002206429487288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72.916099534123475</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>73.867471446320266</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75.238317568769162</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>ИБПО (Метод Б)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Женщины!$D$18:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>70.778718400329453</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.955717713590403</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.631469311685265</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73.523223860250027</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72.898012924732612</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72.150370581197222</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71.956839669012012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75.069471682335973</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>76.832143815210131</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79.277510460499997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.486619881896232</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Женщины!$G$2:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>47.824765018240683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.611437706394042</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.31825545303132</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45.481159972454876</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44.646950969746889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43.023177319508513</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41.527922632885804</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47.185765752345098</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50.231178360011647</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47.913996894730445</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.579255482569295</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>18-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25-29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30-34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35-39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40-44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45-49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50-54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55-59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60-64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65-69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70+</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Женщины!$G$18:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>48.522321752145153</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.055295883469583</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.166454659703177</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.829619312046148</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46.679999191302919</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45.714551055667968</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45.219235297167764</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50.524565259504065</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.836408959392706</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55.782231746641841</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.040818975564449</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="362127656"/>
-        <c:axId val="362128048"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="362127656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Возрастная группа</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="362128048"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="362128048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="110"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>ИБПО,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> %</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="362127656"/>
+        <c:crossAx val="347989144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -7855,11 +7849,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="6.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -8019,7 +8016,7 @@
         <v>68.683205508754995</v>
       </c>
       <c r="G7" s="2">
-        <v>49.641690680270358</v>
+        <v>49.641690680270401</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8474,11 +8471,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="7" max="7" width="5.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
